--- a/files/statisticsExport (1).xlsx
+++ b/files/statisticsExport (1).xlsx
@@ -475,33 +475,63 @@
       <c r="C2" s="1" t="n">
         <v>2010</v>
       </c>
+      <c r="D2" t="n">
+        <v>2010</v>
+      </c>
       <c r="E2" s="1" t="n">
         <v>2011</v>
       </c>
+      <c r="F2" t="n">
+        <v>2011</v>
+      </c>
       <c r="G2" s="1" t="n">
         <v>2012</v>
       </c>
+      <c r="H2" t="n">
+        <v>2012</v>
+      </c>
       <c r="I2" s="1" t="n">
         <v>2013</v>
       </c>
+      <c r="J2" t="n">
+        <v>2013</v>
+      </c>
       <c r="K2" s="1" t="n">
         <v>2014</v>
       </c>
+      <c r="L2" t="n">
+        <v>2014</v>
+      </c>
       <c r="M2" s="1" t="n">
         <v>2015</v>
       </c>
+      <c r="N2" t="n">
+        <v>2015</v>
+      </c>
       <c r="O2" s="1" t="n">
         <v>2016</v>
       </c>
+      <c r="P2" t="n">
+        <v>2016</v>
+      </c>
       <c r="Q2" s="1" t="n">
         <v>2017</v>
       </c>
+      <c r="R2" t="n">
+        <v>2017</v>
+      </c>
       <c r="S2" s="1" t="n">
         <v>2018</v>
       </c>
+      <c r="T2" t="n">
+        <v>2018</v>
+      </c>
       <c r="U2" s="1" t="n">
         <v>2019</v>
       </c>
+      <c r="V2" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1920,6 +1950,21 @@
           <t>(1993 Onwards)</t>
         </is>
       </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>(1993 Onwards)</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>(1993 Onwards)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>(1993 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -1937,6 +1982,21 @@
           <t>(2005 Onwards)</t>
         </is>
       </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>(2005 Onwards)</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>(2005 Onwards)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>(2005 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -1954,6 +2014,21 @@
           <t>(2010 Onwards)</t>
         </is>
       </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>(2010 Onwards)</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>(2010 Onwards)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>(2010 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2047,21 +2122,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="S44:V44"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>